--- a/overview.xlsx
+++ b/overview.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026BACB4-CAC5-40DA-B543-4A73BB7C308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APCP" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">APCP!$A$2:$Q$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'KU01'!$A$2:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -428,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="000"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
@@ -594,6 +604,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,12 +620,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +901,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -924,39 +937,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="25"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="18" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1522,9 +1535,9 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="11">
         <v>3</v>
       </c>
@@ -2105,9 +2118,9 @@
       <c r="B23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="11">
         <v>1</v>
       </c>
@@ -2155,9 +2168,9 @@
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="11">
         <v>1</v>
       </c>
@@ -2208,8 +2221,8 @@
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="11">
         <v>2</v>
       </c>
@@ -2313,9 +2326,9 @@
       <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="11">
         <v>1</v>
       </c>
@@ -2410,9 +2423,9 @@
       <c r="B29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="11">
         <v>1</v>
       </c>
@@ -2445,7 +2458,7 @@
         <v>20</v>
       </c>
       <c r="P29" s="4" t="str">
-        <f>O29&amp;TEXT(A29, "000")</f>
+        <f t="shared" ref="P29:P34" si="3">O29&amp;TEXT(A29, "000")</f>
         <v>TianTcl027</v>
       </c>
       <c r="Q29" s="2" t="str">
@@ -2471,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="P30" s="4" t="str">
-        <f>O30&amp;TEXT(A30, "000")</f>
+        <f t="shared" si="3"/>
         <v>TianTcl028</v>
       </c>
       <c r="Q30" s="2" t="str">
@@ -2493,7 +2506,7 @@
         <v>20</v>
       </c>
       <c r="P31" s="4" t="str">
-        <f>O31&amp;TEXT(A31, "000")</f>
+        <f t="shared" si="3"/>
         <v>TianTcl029</v>
       </c>
       <c r="Q31" s="2" t="str">
@@ -2515,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="P32" s="4" t="str">
-        <f>O32&amp;TEXT(A32, "000")</f>
+        <f t="shared" si="3"/>
         <v>TianTcl030</v>
       </c>
       <c r="Q32" s="2" t="str">
@@ -2537,7 +2550,7 @@
         <v>20</v>
       </c>
       <c r="P33" s="4" t="str">
-        <f>O33&amp;TEXT(A33, "000")</f>
+        <f t="shared" si="3"/>
         <v>TianTcl031</v>
       </c>
       <c r="Q33" s="2" t="str">
@@ -2559,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="P34" s="4" t="str">
-        <f>O34&amp;TEXT(A34, "000")</f>
+        <f t="shared" si="3"/>
         <v>TianTcl032</v>
       </c>
       <c r="Q34" s="2" t="str">
@@ -2568,8 +2581,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q2">
-    <sortState ref="A3:Q26">
+  <autoFilter ref="A2:Q2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q26">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
@@ -2582,12 +2595,12 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2614,27 +2627,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3190,7 +3203,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
+  <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:H1"/>
